--- a/src/modules/voucher/public/voucher_date-992a6cad-b221-4aec-90a9-b1c3acb50207.xlsx
+++ b/src/modules/voucher/public/voucher_date-992a6cad-b221-4aec-90a9-b1c3acb50207.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
   <si>
     <t>code</t>
   </si>
@@ -19,6 +19,9 @@
     <t>status</t>
   </si>
   <si>
+    <t>statusOnline</t>
+  </si>
+  <si>
     <t>voucher_type</t>
   </si>
   <si>
@@ -31,16 +34,25 @@
     <t>percent %</t>
   </si>
   <si>
+    <t>startedAt</t>
+  </si>
+  <si>
+    <t>expiredAt</t>
+  </si>
+  <si>
     <t>createdAt</t>
   </si>
   <si>
-    <t>bokino27</t>
+    <t>EIBDOJ2F6RLKECX3</t>
   </si>
   <si>
     <t>ACTIVE</t>
   </si>
   <si>
-    <t>VOUCHER</t>
+    <t>ONLINE</t>
+  </si>
+  <si>
+    <t>COUPON</t>
   </si>
   <si>
     <t>EUR</t>
@@ -49,10 +61,58 @@
     <t/>
   </si>
   <si>
-    <t>09/05/2022</t>
-  </si>
-  <si>
-    <t>bokino237</t>
+    <t>09/09/2022</t>
+  </si>
+  <si>
+    <t>09/28/2022</t>
+  </si>
+  <si>
+    <t>9BL5BM63EG663F0J</t>
+  </si>
+  <si>
+    <t>09/22/2022</t>
+  </si>
+  <si>
+    <t>09/23/2022</t>
+  </si>
+  <si>
+    <t>CD3EV4JQ1H3FIQBR</t>
+  </si>
+  <si>
+    <t>LRLBACV8VGHC5F89</t>
+  </si>
+  <si>
+    <t>VMAC3E3FWECCGVPA</t>
+  </si>
+  <si>
+    <t>09/08/2022</t>
+  </si>
+  <si>
+    <t>09/30/2022</t>
+  </si>
+  <si>
+    <t>09/07/2022</t>
+  </si>
+  <si>
+    <t>LQ36ICAZNZVMHCT8</t>
+  </si>
+  <si>
+    <t>8WBUDK3306Y0IL6C</t>
+  </si>
+  <si>
+    <t>ECFJH6P3GCMHG6PN</t>
+  </si>
+  <si>
+    <t>WHOHBFOACXCW65CE</t>
+  </si>
+  <si>
+    <t>CEW6EPTYFCCCGL58</t>
+  </si>
+  <si>
+    <t>0C1GHC0R80TAZ8FZ</t>
+  </si>
+  <si>
+    <t>09/03/2022</t>
   </si>
 </sst>
 </file>
@@ -438,17 +498,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" style="1" customWidth="1"/>
-    <col min="2" max="3" width="30" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="6" width="30" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30" style="2" customWidth="1"/>
+    <col min="2" max="4" width="30" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="6" max="7" width="30" style="3" customWidth="1"/>
+    <col min="8" max="10" width="30" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,63 +518,378 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/src/modules/voucher/public/voucher_date-992a6cad-b221-4aec-90a9-b1c3acb50207.xlsx
+++ b/src/modules/voucher/public/voucher_date-992a6cad-b221-4aec-90a9-b1c3acb50207.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>code</t>
   </si>
@@ -58,40 +58,34 @@
     <t>EUR</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>09/09/2022</t>
   </si>
   <si>
-    <t>09/28/2022</t>
-  </si>
-  <si>
-    <t>9BL5BM63EG663F0J</t>
-  </si>
-  <si>
-    <t>09/22/2022</t>
-  </si>
-  <si>
-    <t>09/23/2022</t>
+    <t>28/09/2022</t>
   </si>
   <si>
     <t>CD3EV4JQ1H3FIQBR</t>
   </si>
   <si>
+    <t>22/09/2022</t>
+  </si>
+  <si>
+    <t>23/09/2022</t>
+  </si>
+  <si>
     <t>LRLBACV8VGHC5F89</t>
   </si>
   <si>
     <t>VMAC3E3FWECCGVPA</t>
   </si>
   <si>
-    <t>09/08/2022</t>
-  </si>
-  <si>
-    <t>09/30/2022</t>
-  </si>
-  <si>
-    <t>09/07/2022</t>
+    <t>08/09/2022</t>
+  </si>
+  <si>
+    <t>30/09/2022</t>
+  </si>
+  <si>
+    <t>07/09/2022</t>
   </si>
   <si>
     <t>LQ36ICAZNZVMHCT8</t>
@@ -107,18 +101,15 @@
   </si>
   <si>
     <t>CEW6EPTYFCCCGL58</t>
-  </si>
-  <si>
-    <t>0C1GHC0R80TAZ8FZ</t>
-  </si>
-  <si>
-    <t>09/03/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
@@ -148,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -158,6 +149,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,14 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="30" style="1" customWidth="1"/>
-    <col min="2" max="4" width="30" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30" style="1" customWidth="1"/>
-    <col min="6" max="7" width="30" style="3" customWidth="1"/>
-    <col min="8" max="10" width="30" style="2" customWidth="1"/>
+    <col min="1" max="1" width="40" style="1" customWidth="1"/>
+    <col min="2" max="4" width="40" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40" style="3" customWidth="1"/>
+    <col min="7" max="7" width="40" style="2" customWidth="1"/>
+    <col min="8" max="10" width="40" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -527,16 +522,16 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -559,22 +554,20 @@
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -591,22 +584,20 @@
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -623,22 +614,20 @@
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -650,27 +639,25 @@
         <v>13</v>
       </c>
       <c r="E5" s="1">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>16</v>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -687,22 +674,20 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -719,22 +704,20 @@
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -751,22 +734,20 @@
       <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -783,22 +764,20 @@
       <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -815,81 +794,15 @@
       <c r="F10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
